--- a/documents/backLog.xlsx
+++ b/documents/backLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marieeonnet/Documents/Documents - MacBook Pro de Marie/Cours_DUT_Caen/Projet2A/dut2021_pret_instruments_voyage/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB4F345A-19D1-F54A-8A89-EAE0D2B004E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA50A1F-86DC-9245-81AC-147B9EC4B88F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="19040" windowHeight="21600" xr2:uid="{13C9F870-9254-5C40-BD50-BF09B3888724}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{13C9F870-9254-5C40-BD50-BF09B3888724}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3750EFA-884E-FB4A-A6E0-211939DB8B4E}">
   <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +728,9 @@
       <c r="D5" s="11">
         <v>3</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
       <c r="G5" s="18" t="s">
         <v>38</v>
       </c>
@@ -936,7 +938,9 @@
       <c r="D21" s="11">
         <v>19</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="11">
